--- a/Optimization models (Pyomo)/CORDOBA/CostoTransAcopioClie.xlsx
+++ b/Optimization models (Pyomo)/CORDOBA/CostoTransAcopioClie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIMAG\Desktop\HENRY\OptimizationModel\Optimization models (Pyomo)\CORDOBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AB97C7-E40B-4909-8737-E67AAD75D3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA37F9D-A27D-4831-9815-E915B9051B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7BC2CAB7-1DA8-4CBF-88C7-245F52253B56}"/>
   </bookViews>
@@ -36,45 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="11">
   <si>
     <t>CostoTransAcopioClie</t>
-  </si>
-  <si>
-    <t>Enero</t>
-  </si>
-  <si>
-    <t>Febrero</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Mayo</t>
-  </si>
-  <si>
-    <t>Junio</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>Septiembre</t>
-  </si>
-  <si>
-    <t>Octubre</t>
-  </si>
-  <si>
-    <t>Noviembre</t>
-  </si>
-  <si>
-    <t>Diciembre</t>
   </si>
   <si>
     <t>Queso duro</t>
@@ -465,23 +429,23 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -489,15 +453,15 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
@@ -506,15 +470,15 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
@@ -523,15 +487,15 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
@@ -540,15 +504,15 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
@@ -557,15 +521,15 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
@@ -574,15 +538,15 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
@@ -591,15 +555,15 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
@@ -608,15 +572,15 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
@@ -625,15 +589,15 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
       <c r="E10">
@@ -642,15 +606,15 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
@@ -659,15 +623,15 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
         <v>11</v>
       </c>
       <c r="E12">
@@ -676,15 +640,15 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
         <v>12</v>
       </c>
       <c r="E13">
@@ -693,15 +657,15 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
@@ -710,15 +674,15 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
@@ -727,15 +691,15 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
@@ -744,15 +708,15 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
         <v>4</v>
       </c>
       <c r="E17">
@@ -761,15 +725,15 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
         <v>5</v>
       </c>
       <c r="E18">
@@ -778,15 +742,15 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
         <v>6</v>
       </c>
       <c r="E19">
@@ -795,15 +759,15 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
         <v>7</v>
       </c>
       <c r="E20">
@@ -812,15 +776,15 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
         <v>8</v>
       </c>
       <c r="E21">
@@ -829,15 +793,15 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
         <v>9</v>
       </c>
       <c r="E22">
@@ -846,15 +810,15 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
         <v>10</v>
       </c>
       <c r="E23">
@@ -863,15 +827,15 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
         <v>11</v>
       </c>
       <c r="E24">
@@ -880,15 +844,15 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25">
         <v>12</v>
       </c>
       <c r="E25">
@@ -897,15 +861,15 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
@@ -914,15 +878,15 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
         <v>2</v>
       </c>
       <c r="E27">
@@ -931,15 +895,15 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
         <v>3</v>
       </c>
       <c r="E28">
@@ -948,15 +912,15 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
         <v>4</v>
       </c>
       <c r="E29">
@@ -965,15 +929,15 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
         <v>5</v>
       </c>
       <c r="E30">
@@ -982,15 +946,15 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
         <v>6</v>
       </c>
       <c r="E31">
@@ -999,15 +963,15 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
         <v>7</v>
       </c>
       <c r="E32">
@@ -1016,15 +980,15 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
         <v>8</v>
       </c>
       <c r="E33">
@@ -1033,15 +997,15 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34">
         <v>9</v>
       </c>
       <c r="E34">
@@ -1050,15 +1014,15 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
         <v>10</v>
       </c>
       <c r="E35">
@@ -1067,15 +1031,15 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
         <v>11</v>
       </c>
       <c r="E36">
@@ -1084,15 +1048,15 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37">
         <v>12</v>
       </c>
       <c r="E37">
@@ -1101,15 +1065,15 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
@@ -1118,15 +1082,15 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39">
         <v>2</v>
       </c>
       <c r="E39">
@@ -1135,15 +1099,15 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40">
         <v>3</v>
       </c>
       <c r="E40">
@@ -1152,15 +1116,15 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41">
         <v>4</v>
       </c>
       <c r="E41">
@@ -1169,15 +1133,15 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42">
         <v>5</v>
       </c>
       <c r="E42">
@@ -1186,15 +1150,15 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43">
         <v>6</v>
       </c>
       <c r="E43">
@@ -1203,15 +1167,15 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44">
         <v>7</v>
       </c>
       <c r="E44">
@@ -1220,15 +1184,15 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
         <v>8</v>
       </c>
       <c r="E45">
@@ -1237,15 +1201,15 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46">
         <v>9</v>
       </c>
       <c r="E46">
@@ -1254,15 +1218,15 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47">
         <v>10</v>
       </c>
       <c r="E47">
@@ -1271,15 +1235,15 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48">
         <v>11</v>
       </c>
       <c r="E48">
@@ -1288,15 +1252,15 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49">
         <v>12</v>
       </c>
       <c r="E49">
@@ -1305,15 +1269,15 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
@@ -1322,15 +1286,15 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51">
         <v>2</v>
       </c>
       <c r="E51">
@@ -1339,15 +1303,15 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52">
         <v>3</v>
       </c>
       <c r="E52">
@@ -1356,15 +1320,15 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53">
         <v>4</v>
       </c>
       <c r="E53">
@@ -1373,15 +1337,15 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54">
         <v>5</v>
       </c>
       <c r="E54">
@@ -1390,15 +1354,15 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55">
         <v>6</v>
       </c>
       <c r="E55">
@@ -1407,15 +1371,15 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56">
         <v>7</v>
       </c>
       <c r="E56">
@@ -1424,15 +1388,15 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57">
         <v>8</v>
       </c>
       <c r="E57">
@@ -1441,15 +1405,15 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58">
         <v>9</v>
       </c>
       <c r="E58">
@@ -1458,15 +1422,15 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59">
         <v>10</v>
       </c>
       <c r="E59">
@@ -1475,15 +1439,15 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60">
         <v>11</v>
       </c>
       <c r="E60">
@@ -1492,15 +1456,15 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61">
         <v>12</v>
       </c>
       <c r="E61">
@@ -1509,15 +1473,15 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
@@ -1526,15 +1490,15 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63">
         <v>2</v>
       </c>
       <c r="E63">
@@ -1543,15 +1507,15 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64">
         <v>3</v>
       </c>
       <c r="E64">
@@ -1560,15 +1524,15 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65">
         <v>4</v>
       </c>
       <c r="E65">
@@ -1577,15 +1541,15 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66">
         <v>5</v>
       </c>
       <c r="E66">
@@ -1594,15 +1558,15 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67">
         <v>6</v>
       </c>
       <c r="E67">
@@ -1611,15 +1575,15 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68">
         <v>7</v>
       </c>
       <c r="E68">
@@ -1628,15 +1592,15 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69">
         <v>8</v>
       </c>
       <c r="E69">
@@ -1645,15 +1609,15 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70">
         <v>9</v>
       </c>
       <c r="E70">
@@ -1662,15 +1626,15 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71">
         <v>10</v>
       </c>
       <c r="E71">
@@ -1679,15 +1643,15 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72">
         <v>11</v>
       </c>
       <c r="E72">
@@ -1696,15 +1660,15 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73">
         <v>12</v>
       </c>
       <c r="E73">
